--- a/Auth_Testing_Aliexpress.xlsx
+++ b/Auth_Testing_Aliexpress.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Чек-лист" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="82">
   <si>
     <t>1.0</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Вход через Mail</t>
   </si>
   <si>
-    <t>Поле пароля</t>
-  </si>
-  <si>
     <t>Закрытие окна</t>
   </si>
   <si>
@@ -172,6 +169,99 @@
   </si>
   <si>
     <t>Кнопка закрытия окна Входа находится в поле видимости</t>
+  </si>
+  <si>
+    <t>Отправить SQL-инъекцию в поле</t>
+  </si>
+  <si>
+    <t>Отправить пробелы в поле</t>
+  </si>
+  <si>
+    <t>Валидные данные</t>
+  </si>
+  <si>
+    <t>Пустое поле</t>
+  </si>
+  <si>
+    <t>Только цифры в поле</t>
+  </si>
+  <si>
+    <t>Спецсимволы  в поле</t>
+  </si>
+  <si>
+    <t>Теги в поле</t>
+  </si>
+  <si>
+    <t>Без имени почтового ящика</t>
+  </si>
+  <si>
+    <t>Без имени домена</t>
+  </si>
+  <si>
+    <t>Без кода страны (.ru/.com)</t>
+  </si>
+  <si>
+    <t>С символами кириллицы</t>
+  </si>
+  <si>
+    <t>Валидный Email с пробелами в начале и конце</t>
+  </si>
+  <si>
+    <t>Валидный Email с пробелами перед @</t>
+  </si>
+  <si>
+    <t>Два символа@ подряд</t>
+  </si>
+  <si>
+    <t>Без  символа @</t>
+  </si>
+  <si>
+    <t>Валидный Email с заглавными и строчными буквами</t>
+  </si>
+  <si>
+    <t>С цифрами в начале имени почтового ящика</t>
+  </si>
+  <si>
+    <t>С цифрами в начале доменной части</t>
+  </si>
+  <si>
+    <t>Дефис в имени почтового ящика</t>
+  </si>
+  <si>
+    <t>Дефис в доменной части</t>
+  </si>
+  <si>
+    <t>Нижнее подчеркивание в имени почтового ящика</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Нижнее подчеркивание в доменной части</t>
+  </si>
+  <si>
+    <t>Превысить максимум символов в имени почтового ящика</t>
+  </si>
+  <si>
+    <t>Максимум символов в имени почтового ящика</t>
+  </si>
+  <si>
+    <t>В начале имени почтового ящика точка (.)</t>
+  </si>
+  <si>
+    <t>В начале доменной части  точка (.)</t>
+  </si>
+  <si>
+    <t>Стереть символы Backspace</t>
+  </si>
+  <si>
+    <t>Ввести данные через Ctrl+C/Ctrl+V</t>
+  </si>
+  <si>
+    <t>Отправка несуществующего пользователя</t>
+  </si>
+  <si>
+    <t>Пароль</t>
   </si>
 </sst>
 </file>
@@ -271,7 +361,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -320,54 +410,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -382,6 +509,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -737,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,232 +891,447 @@
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
     <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="40.28515625" customWidth="1"/>
     <col min="5" max="5" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="4">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="2">
         <v>44863</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="5" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="5" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="17" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="25"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
+      <c r="B39" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="17"/>
+      <c r="C41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="17"/>
+      <c r="C42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="17"/>
+      <c r="C43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="7"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="7"/>
-      <c r="C13" t="s">
+    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D46" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="7"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="14"/>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="14"/>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="14"/>
-      <c r="C20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="8" t="s">
+    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D48" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A7:A24"/>
+  <mergeCells count="13">
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A7:A47"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:D5"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B7:B14"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="C7:C36"/>
+    <mergeCell ref="B7:B37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E1" r:id="rId1"/>
@@ -987,7 +1345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:C5"/>
     </sheetView>
   </sheetViews>
@@ -998,87 +1356,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="19"/>
+    </row>
+    <row r="2" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="19"/>
-    </row>
-    <row r="2" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="B2" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="19"/>
+    </row>
+    <row r="3" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B3" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="19"/>
-    </row>
-    <row r="3" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="C3" s="19"/>
+    </row>
+    <row r="4" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>38</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="19"/>
-    </row>
-    <row r="4" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>39</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="19"/>
     </row>
     <row r="5" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="21"/>
+    </row>
+    <row r="6" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="19"/>
+    </row>
+    <row r="7" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B7" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="21"/>
-    </row>
-    <row r="6" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="C7" s="19"/>
+    </row>
+    <row r="8" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="19"/>
-    </row>
-    <row r="7" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="19"/>
-    </row>
-    <row r="8" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="B8" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="19"/>
+    </row>
+    <row r="9" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B9" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="19"/>
+    </row>
+    <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="C8" s="19"/>
-    </row>
-    <row r="9" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="19"/>
-    </row>
-    <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>46</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>7</v>
@@ -1087,7 +1445,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">

--- a/Auth_Testing_Aliexpress.xlsx
+++ b/Auth_Testing_Aliexpress.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="94">
   <si>
     <t>1.0</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Закрыть окно кликом по пустому месту</t>
   </si>
   <si>
-    <t>Ввести валидные данные</t>
-  </si>
-  <si>
     <t>Ok</t>
   </si>
   <si>
@@ -262,6 +259,45 @@
   </si>
   <si>
     <t>Пароль</t>
+  </si>
+  <si>
+    <t>Минимальное/максимальное кол-во символов</t>
+  </si>
+  <si>
+    <t>Латинские буквы</t>
+  </si>
+  <si>
+    <t>Символы кириллицы</t>
+  </si>
+  <si>
+    <t>Граничные значения</t>
+  </si>
+  <si>
+    <t>Символы в верхнем/нижнем регистре</t>
+  </si>
+  <si>
+    <t>Цифры</t>
+  </si>
+  <si>
+    <t>Пробелы в начале и конце</t>
+  </si>
+  <si>
+    <t>Пробелы в середине</t>
+  </si>
+  <si>
+    <t>Отправка несуществующего пароля</t>
+  </si>
+  <si>
+    <t>Символы и цифры</t>
+  </si>
+  <si>
+    <t>Символы и спецсимволы</t>
+  </si>
+  <si>
+    <t>Цифры и спецсимволы</t>
+  </si>
+  <si>
+    <t>Символы, спецсимволы, цифры</t>
   </si>
 </sst>
 </file>
@@ -292,6 +328,8 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -361,7 +399,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -411,9 +449,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -424,9 +460,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -434,25 +468,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -495,6 +516,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -510,20 +534,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -880,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B37"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,367 +988,516 @@
       <c r="A7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="18" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="23"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="23"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="23"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="23"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="23"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="23"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="23"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="23"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="23"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="23"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="23"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="23"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="23"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="23"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="23"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="23"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="23"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="23"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="23"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="23"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="23"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="23"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="23"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="23"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="18"/>
       <c r="D32" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="6" t="s">
+    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="5" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="14"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="14"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="14"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="14"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="14"/>
+      <c r="B56" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="14"/>
+      <c r="B57" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="14"/>
+      <c r="B58" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="14"/>
+      <c r="B59" s="17"/>
+      <c r="C59" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="14"/>
+      <c r="B60" s="17"/>
+      <c r="C60" t="s">
+        <v>27</v>
+      </c>
+      <c r="E60" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D37" s="25"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="17"/>
-      <c r="C41" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="17"/>
-      <c r="C42" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="17"/>
-      <c r="C43" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="14"/>
+      <c r="B61" s="17"/>
+      <c r="C61" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="13" t="s">
+    <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="14"/>
+      <c r="B62" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C62" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E44" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="7" t="s">
+      <c r="D62" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="13" t="s">
+      <c r="E62" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="14"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C64" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="5" t="s">
+      <c r="D64" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D48" s="6" t="s">
+      <c r="E64" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="13"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="E65" s="9" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A7:A47"/>
+  <mergeCells count="14">
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="A7:A63"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:D5"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="C7:C36"/>
-    <mergeCell ref="B7:B37"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="C7:C35"/>
+    <mergeCell ref="C36:C55"/>
+    <mergeCell ref="B7:B55"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E1" r:id="rId1"/>
@@ -1357,117 +1523,117 @@
   <sheetData>
     <row r="1" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="19"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="19"/>
+        <v>35</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="20"/>
     </row>
     <row r="3" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="19"/>
+        <v>36</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="20"/>
     </row>
     <row r="4" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
+        <v>37</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
     </row>
     <row r="5" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="21"/>
+        <v>38</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="22"/>
     </row>
     <row r="6" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="19"/>
+        <v>40</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="20"/>
     </row>
     <row r="7" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="19"/>
+        <v>39</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="20"/>
     </row>
     <row r="8" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="19"/>
+        <v>41</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="20"/>
     </row>
     <row r="9" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="19"/>
+      <c r="C9" s="20"/>
     </row>
     <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="22"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="21"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
+      <c r="A12" s="23"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
+      <c r="A14" s="23"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
+      <c r="A15" s="23"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
+      <c r="A16" s="23"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
+      <c r="A17" s="23"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
+      <c r="A18" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/Auth_Testing_Aliexpress.xlsx
+++ b/Auth_Testing_Aliexpress.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="96">
   <si>
     <t>1.0</t>
   </si>
@@ -298,6 +298,12 @@
   </si>
   <si>
     <t>Символы, спецсимволы, цифры</t>
+  </si>
+  <si>
+    <t>Войти под существующим пользователем</t>
+  </si>
+  <si>
+    <t>Войти под несуществующим пользователем</t>
   </si>
 </sst>
 </file>
@@ -399,7 +405,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -468,12 +474,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -500,6 +543,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -513,12 +559,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -534,14 +583,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -897,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,61 +959,61 @@
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
     <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="40.28515625" customWidth="1"/>
+    <col min="4" max="4" width="41.7109375" customWidth="1"/>
     <col min="5" max="5" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
       <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="2">
         <v>44863</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="11" t="s">
         <v>7</v>
       </c>
@@ -985,10 +1036,10 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="18" t="s">
@@ -999,56 +1050,56 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="26"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="18"/>
       <c r="D8" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="18"/>
       <c r="D9" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="18"/>
       <c r="D10" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="26"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="18"/>
       <c r="D11" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="26"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="18"/>
       <c r="D12" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="26"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="18"/>
       <c r="D13" s="6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="26"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="18"/>
       <c r="D14" s="6" t="s">
         <v>72</v>
@@ -1058,176 +1109,176 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="26"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="18"/>
       <c r="D15" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="26"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="18"/>
       <c r="D16" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="26"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="18"/>
       <c r="D17" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="26"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="18"/>
       <c r="D18" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="26"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="18"/>
       <c r="D19" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="26"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="18"/>
       <c r="D20" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="26"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="18"/>
       <c r="D21" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="26"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="18"/>
       <c r="D22" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="26"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="18"/>
       <c r="D23" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="26"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="18"/>
       <c r="D24" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="26"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="18"/>
       <c r="D25" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="26"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="18"/>
       <c r="D26" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="26"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="18"/>
       <c r="D27" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="26"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="18"/>
       <c r="D28" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="26"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="18"/>
       <c r="D29" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="26"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="18"/>
       <c r="D30" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="26"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="18"/>
       <c r="D31" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="26"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="18"/>
       <c r="D32" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="26"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="18"/>
       <c r="D33" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="26"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="18"/>
       <c r="D34" s="6" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="26"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="18"/>
       <c r="D35" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="26"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="18" t="s">
         <v>80</v>
       </c>
@@ -1236,268 +1287,321 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="26"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="18"/>
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="12" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="26"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="18"/>
-      <c r="D38" s="24" t="s">
+      <c r="D38" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="26"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="18"/>
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="26"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="18"/>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="12" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="26"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="18"/>
-      <c r="D41" s="24" t="s">
+      <c r="D41" s="12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="26"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="18"/>
-      <c r="D42" s="24" t="s">
+      <c r="D42" s="12" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="26"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="18"/>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="12" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="26"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="20"/>
       <c r="C44" s="18"/>
-      <c r="D44" s="24" t="s">
+      <c r="D44" s="12" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="26"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="20"/>
       <c r="C45" s="18"/>
-      <c r="D45" s="24" t="s">
+      <c r="D45" s="12" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="26"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="20"/>
       <c r="C46" s="18"/>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="12" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="26"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="18"/>
-      <c r="D47" s="24" t="s">
+      <c r="D47" s="12" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="26"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="20"/>
       <c r="C48" s="18"/>
       <c r="D48" s="6" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="26"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="20"/>
       <c r="C49" s="18"/>
       <c r="D49" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="26"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="20"/>
       <c r="C50" s="18"/>
       <c r="D50" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="26"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="20"/>
       <c r="C51" s="18"/>
       <c r="D51" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="26"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="20"/>
       <c r="C52" s="18"/>
       <c r="D52" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="26"/>
+      <c r="A53" s="15"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="18"/>
       <c r="D53" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-      <c r="B54" s="26"/>
+      <c r="A54" s="15"/>
+      <c r="B54" s="20"/>
       <c r="C54" s="18"/>
-      <c r="D54" s="24" t="s">
+      <c r="D54" s="12" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
-      <c r="B55" s="26"/>
+      <c r="A55" s="15"/>
+      <c r="B55" s="20"/>
       <c r="C55" s="18"/>
-      <c r="D55" s="24" t="s">
+      <c r="D55" s="12" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
+      <c r="A56" s="15"/>
       <c r="B56" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
+      <c r="A57" s="15"/>
       <c r="B57" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="17" t="s">
+    <row r="58" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="15"/>
+      <c r="B58" s="8"/>
+    </row>
+    <row r="59" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="15"/>
+      <c r="B59" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" s="25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
-      <c r="B59" s="17"/>
-      <c r="C59" t="s">
+      <c r="D59" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="15"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="15"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
-      <c r="B60" s="17"/>
-      <c r="C60" t="s">
+      <c r="D61" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="15"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="15"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E60" s="9" t="s">
+      <c r="D63" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E63" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
-      <c r="B61" s="17"/>
-      <c r="C61" t="s">
+    <row r="64" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="15"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E64" s="26"/>
+    </row>
+    <row r="65" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="15"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
-      <c r="B62" s="13" t="s">
+      <c r="D65" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="15"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="15"/>
+      <c r="B67" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C67" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D67" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="E67" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="7" t="s">
+    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="15"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E63" s="9" t="s">
+      <c r="E68" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="13" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C69" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D69" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E64" s="9" t="s">
+      <c r="E69" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="13"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="6" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="14"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E65" s="9" t="s">
+      <c r="E70" s="9" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="A7:A63"/>
+  <mergeCells count="18">
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="B59:B66"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="A7:A68"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:D5"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="B67:B68"/>
     <mergeCell ref="C7:C35"/>
     <mergeCell ref="C36:C55"/>
     <mergeCell ref="B7:B55"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C61:C62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E1" r:id="rId1"/>
@@ -1525,115 +1629,115 @@
       <c r="A1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="20"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="20"/>
+      <c r="C2" s="22"/>
     </row>
     <row r="3" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="22"/>
     </row>
     <row r="4" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
     </row>
     <row r="5" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="22"/>
+      <c r="C5" s="24"/>
     </row>
     <row r="6" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="20"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="22"/>
     </row>
     <row r="8" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="20"/>
+      <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="20"/>
+      <c r="C9" s="22"/>
     </row>
     <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="22"/>
+      <c r="C10" s="24"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="25" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
+      <c r="A12" s="25"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
+      <c r="A13" s="25"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
+      <c r="A14" s="25"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
+      <c r="A15" s="25"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
+      <c r="A16" s="25"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
+      <c r="A17" s="25"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
+      <c r="A18" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/Auth_Testing_Aliexpress.xlsx
+++ b/Auth_Testing_Aliexpress.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="118">
   <si>
     <t>1.0</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Закрыть окно кликом по пустому месту</t>
   </si>
   <si>
-    <t>Ok</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -159,12 +156,6 @@
     <t>Кнопка закрытия окна Входа находится за пределами экрана</t>
   </si>
   <si>
-    <t>Нажать на кнопку "Вход"</t>
-  </si>
-  <si>
-    <t>1. Проверить кнопку закрытия окна</t>
-  </si>
-  <si>
     <t>Кнопка закрытия окна Входа находится в поле видимости</t>
   </si>
   <si>
@@ -231,9 +222,6 @@
     <t>Нижнее подчеркивание в имени почтового ящика</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Нижнее подчеркивание в доменной части</t>
   </si>
   <si>
@@ -304,6 +292,88 @@
   </si>
   <si>
     <t>Войти под несуществующим пользователем</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кнопка кликабельна и ведет на страницу восстановления пароля </t>
+  </si>
+  <si>
+    <t>Кнопка восстановления пароля</t>
+  </si>
+  <si>
+    <t>Кнопка входа по телефону</t>
+  </si>
+  <si>
+    <t>Существующий номер</t>
+  </si>
+  <si>
+    <t>Поле телефона</t>
+  </si>
+  <si>
+    <t>Код получен</t>
+  </si>
+  <si>
+    <t>Ввод полученного кода</t>
+  </si>
+  <si>
+    <t>Загружены все страны СНГ</t>
+  </si>
+  <si>
+    <t>Можно выбрать код номера страны</t>
+  </si>
+  <si>
+    <t>Кнопка кликабельна и ведет на экран входа по телефону</t>
+  </si>
+  <si>
+    <t>Выпадающее меню кода телефона</t>
+  </si>
+  <si>
+    <t>Кнопка "Получить код" неактивна пока не  введен номер</t>
+  </si>
+  <si>
+    <t>Кнопка "Назад" кликабельна и возвращает предыдущий экран</t>
+  </si>
+  <si>
+    <t>Кнопка "изменить номер" кликабельна и возвращает предыдущий экран</t>
+  </si>
+  <si>
+    <t>Кнопка "Получить код по СМС" кликабельна и отправляет СМС на введенный номер</t>
+  </si>
+  <si>
+    <t>Кнопка "Позвонить снова" кликабельна и отправляет новый вызов на введенный номер</t>
+  </si>
+  <si>
+    <t>Арабские символы/кириллицы</t>
+  </si>
+  <si>
+    <t>Специальные символы</t>
+  </si>
+  <si>
+    <t>Несуществующий номер</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>В выпадающем списке кодов номеров стран нет кода Украины</t>
+  </si>
+  <si>
+    <t>Зайти на https://aliexpress.ru/</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку "Войти"
+2. Проверить кнопку закрытия окна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Нажать на кнопку "Войти"
+2. Нажать на кнопку "Вход по телефону"
+3.Нажать на выпадающий список с кодом номера стран
+</t>
+  </si>
+  <si>
+    <t>В выпадающем списке есть код Украины</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -355,7 +425,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -404,8 +474,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -511,12 +593,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -530,44 +661,35 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -580,18 +702,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -947,11 +1104,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59:B66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,57 +1121,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
       <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
       <c r="E2" s="2">
-        <v>44863</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
       <c r="E3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="11" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1036,711 +1193,1214 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="29"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="29"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="29"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="29"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="29"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="30" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="6" t="s">
+      <c r="E19" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="29"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="29"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="29"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="29"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="29"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="29"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="29"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="29"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="29"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="29"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="31" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="6" t="s">
+      <c r="E29" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="29"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="29"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="E14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="6" t="s">
+      <c r="E31" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="29"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="29"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="29"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="31" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="5" t="s">
+      <c r="E34" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="29"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="29"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="29"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="29"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="29"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="29"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="29"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="29"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="29"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="29"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="29"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="E45" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="29"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E46" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="29"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="29"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="29"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E49" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="29"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E50" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="29"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E51" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="29"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E52" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="29"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E53" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="29"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="32" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="5" t="s">
+      <c r="E54" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="29"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="E55" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="29"/>
+      <c r="B56" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D56" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E56" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="29"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D57" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E57" s="35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="29"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="E58" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="29"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D59" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="E59" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="29"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E60" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="29"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="E61" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="29"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="E62" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="29"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="E63" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="29"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="E64" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="29"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="E65" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="29"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E66" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="29"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="32" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="12" t="s">
+      <c r="E67" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="29"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="E68" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="29"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="E69" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="29"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="E70" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="29"/>
+      <c r="B71" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D71" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E71" s="36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="29"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="36"/>
+    </row>
+    <row r="73" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="29"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="36"/>
+    </row>
+    <row r="74" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="29"/>
+      <c r="B74" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E74" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="29"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="30" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="12" t="s">
+      <c r="E75" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="29"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D76" s="30" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="15"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="15"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="15"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="15"/>
-      <c r="B56" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="15"/>
-      <c r="B57" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="15"/>
-      <c r="B58" s="8"/>
-    </row>
-    <row r="59" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="15"/>
-      <c r="B59" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C59" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="15"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="15"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="15"/>
-      <c r="B62" s="29"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="15"/>
-      <c r="B63" s="29"/>
-      <c r="C63" s="25" t="s">
+      <c r="E76" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="29"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E77" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="29"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E63" s="27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="15"/>
-      <c r="B64" s="29"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E64" s="26"/>
-    </row>
-    <row r="65" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="15"/>
-      <c r="B65" s="29"/>
-      <c r="C65" s="25" t="s">
+      <c r="D78" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E78" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="29"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E79" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="29"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="15"/>
-      <c r="B66" s="30"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="15"/>
-      <c r="B67" s="14" t="s">
+      <c r="D80" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E80" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="29"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E81" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="29"/>
+      <c r="B82" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C82" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D82" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E67" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="15"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="7" t="s">
+      <c r="E82" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="29"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E68" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="14" t="s">
+      <c r="E83" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="29"/>
+      <c r="B84" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C84" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D84" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E69" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="14"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="6" t="s">
+      <c r="E84" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="29"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E70" s="9" t="s">
-        <v>32</v>
+      <c r="E85" s="34" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="B59:B66"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="A7:A68"/>
+  <mergeCells count="25">
+    <mergeCell ref="A7:A85"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="C59:C70"/>
+    <mergeCell ref="B56:B70"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:D5"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="B82:B83"/>
     <mergeCell ref="C7:C35"/>
     <mergeCell ref="C36:C55"/>
     <mergeCell ref="B7:B55"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="B74:B81"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="B84:B85"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.140625" customWidth="1"/>
     <col min="2" max="2" width="67.28515625" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="C1" s="17"/>
+    </row>
+    <row r="2" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="22"/>
-    </row>
-    <row r="2" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="B2" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B3" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="17"/>
+    </row>
+    <row r="4" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+    </row>
+    <row r="5" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="19"/>
+    </row>
+    <row r="6" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="17"/>
+    </row>
+    <row r="7" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="22"/>
-    </row>
-    <row r="3" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="C7" s="17"/>
+    </row>
+    <row r="8" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="17"/>
+    </row>
+    <row r="9" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="17"/>
+    </row>
+    <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="19"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+    </row>
+    <row r="21" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="17"/>
+    </row>
+    <row r="22" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="17"/>
+    </row>
+    <row r="23" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="17"/>
+    </row>
+    <row r="24" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="22"/>
-    </row>
-    <row r="4" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+    </row>
+    <row r="25" spans="1:3" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="22"/>
-    </row>
-    <row r="5" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="B25" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="19"/>
+    </row>
+    <row r="26" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="17"/>
+    </row>
+    <row r="27" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="24"/>
-    </row>
-    <row r="6" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="B27" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="17"/>
+    </row>
+    <row r="28" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="22"/>
-    </row>
-    <row r="7" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="22"/>
-    </row>
-    <row r="8" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="B28" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="17"/>
+    </row>
+    <row r="29" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B29" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="17"/>
+    </row>
+    <row r="30" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="22"/>
-    </row>
-    <row r="9" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="22"/>
-    </row>
-    <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="B30" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="19"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="24"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="23">
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A31:A38"/>
+    <mergeCell ref="B31:C38"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="A11:A18"/>
@@ -1753,7 +2413,10 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>